--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H2">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I2">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J2">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N2">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O2">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P2">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q2">
-        <v>47.6829350609775</v>
+        <v>32.2447869372575</v>
       </c>
       <c r="R2">
-        <v>190.73174024391</v>
+        <v>128.97914774903</v>
       </c>
       <c r="S2">
-        <v>0.02308568572685244</v>
+        <v>0.01048853208379753</v>
       </c>
       <c r="T2">
-        <v>0.01355710779130248</v>
+        <v>0.005505447235775133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H3">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I3">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J3">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P3">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q3">
-        <v>26.80995182897734</v>
+        <v>44.00719282500334</v>
       </c>
       <c r="R3">
-        <v>160.859710973864</v>
+        <v>264.04315695002</v>
       </c>
       <c r="S3">
-        <v>0.01298003408314386</v>
+        <v>0.01431458842513195</v>
       </c>
       <c r="T3">
-        <v>0.01143382028686789</v>
+        <v>0.01127062547648722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H4">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I4">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J4">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N4">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O4">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P4">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q4">
-        <v>7.034777260321667</v>
+        <v>4.955193445553334</v>
       </c>
       <c r="R4">
-        <v>42.20866356193</v>
+        <v>29.73116067332</v>
       </c>
       <c r="S4">
-        <v>0.003405886336118185</v>
+        <v>0.001611817300459725</v>
       </c>
       <c r="T4">
-        <v>0.003000168723381514</v>
+        <v>0.001269068211427587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H5">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I5">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J5">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N5">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O5">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P5">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q5">
-        <v>48.44591585702201</v>
+        <v>57.28174382734125</v>
       </c>
       <c r="R5">
-        <v>193.783663428088</v>
+        <v>229.126975309365</v>
       </c>
       <c r="S5">
-        <v>0.02345508276272245</v>
+        <v>0.018632512880857</v>
       </c>
       <c r="T5">
-        <v>0.01377403682223233</v>
+        <v>0.009780235758054522</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H6">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I6">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J6">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N6">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O6">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P6">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q6">
-        <v>13.11929990274133</v>
+        <v>179.7480760480208</v>
       </c>
       <c r="R6">
-        <v>78.71579941644801</v>
+        <v>1078.488456288125</v>
       </c>
       <c r="S6">
-        <v>0.006351707044117585</v>
+        <v>0.05846816312661589</v>
       </c>
       <c r="T6">
-        <v>0.005595075975307701</v>
+        <v>0.04603504825477885</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H7">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I7">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J7">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N7">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O7">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P7">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q7">
-        <v>18.41686763613433</v>
+        <v>12.8181468794875</v>
       </c>
       <c r="R7">
-        <v>110.501205816806</v>
+        <v>76.908881276925</v>
       </c>
       <c r="S7">
-        <v>0.008916523653108384</v>
+        <v>0.004169466061659412</v>
       </c>
       <c r="T7">
-        <v>0.007854365279798636</v>
+        <v>0.003282839088505211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>830.932037</v>
       </c>
       <c r="I8">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J8">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N8">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O8">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P8">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q8">
-        <v>201.1665688276075</v>
+        <v>82.87522252896034</v>
       </c>
       <c r="R8">
-        <v>1206.999412965645</v>
+        <v>497.251335173762</v>
       </c>
       <c r="S8">
-        <v>0.09739476357242875</v>
+        <v>0.02695751819164576</v>
       </c>
       <c r="T8">
-        <v>0.08579285820329811</v>
+        <v>0.02122506650489533</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>830.932037</v>
       </c>
       <c r="I9">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J9">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.225084</v>
       </c>
       <c r="O9">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P9">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q9">
         <v>113.1068381795676</v>
@@ -1013,10 +1013,10 @@
         <v>1017.961543616108</v>
       </c>
       <c r="S9">
-        <v>0.05476065842910641</v>
+        <v>0.03679120917907327</v>
       </c>
       <c r="T9">
-        <v>0.07235614982884256</v>
+        <v>0.04345146997971877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>830.932037</v>
       </c>
       <c r="I10">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J10">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N10">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O10">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P10">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q10">
-        <v>29.67858421709278</v>
+        <v>12.73578765688089</v>
       </c>
       <c r="R10">
-        <v>267.107257953835</v>
+        <v>114.622088911928</v>
       </c>
       <c r="S10">
-        <v>0.01436888201570537</v>
+        <v>0.004142676387086995</v>
       </c>
       <c r="T10">
-        <v>0.01898583782273753</v>
+        <v>0.004892619261113789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>830.932037</v>
       </c>
       <c r="I11">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J11">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N11">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O11">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P11">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q11">
-        <v>204.3854610502727</v>
+        <v>147.2249537816785</v>
       </c>
       <c r="R11">
-        <v>1226.312766301636</v>
+        <v>883.3497226900711</v>
       </c>
       <c r="S11">
-        <v>0.09895318975039008</v>
+        <v>0.04788909457765764</v>
       </c>
       <c r="T11">
-        <v>0.08716564079655033</v>
+        <v>0.03770559329845902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>830.932037</v>
       </c>
       <c r="I12">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J12">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N12">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O12">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P12">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q12">
-        <v>55.34819833300622</v>
+        <v>461.9866718492639</v>
       </c>
       <c r="R12">
-        <v>498.133784997056</v>
+        <v>4157.880046643375</v>
       </c>
       <c r="S12">
-        <v>0.02679682176924043</v>
+        <v>0.1502742765646562</v>
       </c>
       <c r="T12">
-        <v>0.03540707702377402</v>
+        <v>0.177478217285317</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>830.932037</v>
       </c>
       <c r="I13">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J13">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N13">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O13">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P13">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q13">
-        <v>77.69777733219522</v>
+        <v>32.94507038032167</v>
       </c>
       <c r="R13">
-        <v>699.279995989757</v>
+        <v>296.505633422895</v>
       </c>
       <c r="S13">
-        <v>0.03761736702810356</v>
+        <v>0.01071631914824993</v>
       </c>
       <c r="T13">
-        <v>0.04970443970055161</v>
+        <v>0.01265627931653091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H14">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I14">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J14">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N14">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O14">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P14">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q14">
-        <v>159.22274480857</v>
+        <v>63.08220079407367</v>
       </c>
       <c r="R14">
-        <v>955.33646885142</v>
+        <v>378.493204764442</v>
       </c>
       <c r="S14">
-        <v>0.0770876675799604</v>
+        <v>0.02051927613082482</v>
       </c>
       <c r="T14">
-        <v>0.06790479376226695</v>
+        <v>0.01615590120028328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H15">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I15">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J15">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.225084</v>
       </c>
       <c r="O15">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P15">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q15">
-        <v>89.52372820457423</v>
+        <v>86.09362436080312</v>
       </c>
       <c r="R15">
-        <v>805.713553841168</v>
+        <v>774.8426192472281</v>
       </c>
       <c r="S15">
-        <v>0.0433428993367127</v>
+        <v>0.02800439472823195</v>
       </c>
       <c r="T15">
-        <v>0.05726967878743967</v>
+        <v>0.03307399087948693</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H16">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I16">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J16">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N16">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O16">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P16">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q16">
-        <v>23.49051171185111</v>
+        <v>9.694109888649781</v>
       </c>
       <c r="R16">
-        <v>211.41460540666</v>
+        <v>87.24698899784801</v>
       </c>
       <c r="S16">
-        <v>0.01137292765743653</v>
+        <v>0.003153284367758642</v>
       </c>
       <c r="T16">
-        <v>0.01502723453625745</v>
+        <v>0.003724118997456456</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H17">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I17">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J17">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N17">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O17">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P17">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q17">
-        <v>161.7704884914427</v>
+        <v>112.0633382686685</v>
       </c>
       <c r="R17">
-        <v>970.6229309486561</v>
+        <v>672.3800296120111</v>
       </c>
       <c r="S17">
-        <v>0.07832115729489002</v>
+        <v>0.03645178121770385</v>
       </c>
       <c r="T17">
-        <v>0.06899134712844958</v>
+        <v>0.02870039723491418</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H18">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I18">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J18">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N18">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O18">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P18">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q18">
-        <v>43.80793543455289</v>
+        <v>351.6507721906528</v>
       </c>
       <c r="R18">
-        <v>394.271418910976</v>
+        <v>3164.856949715875</v>
       </c>
       <c r="S18">
-        <v>0.02120960524957245</v>
+        <v>0.114384393780942</v>
       </c>
       <c r="T18">
-        <v>0.02802459684146118</v>
+        <v>0.1350912395493637</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H19">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I19">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J19">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N19">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O19">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P19">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q19">
-        <v>61.49756117259689</v>
+        <v>25.07682611868834</v>
       </c>
       <c r="R19">
-        <v>553.478050553372</v>
+        <v>225.691435068195</v>
       </c>
       <c r="S19">
-        <v>0.02977403484879671</v>
+        <v>0.008156949395183227</v>
       </c>
       <c r="T19">
-        <v>0.03934091715346581</v>
+        <v>0.009633590460312693</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H20">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I20">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J20">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N20">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O20">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P20">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q20">
-        <v>54.51799025484001</v>
+        <v>30.09159109469</v>
       </c>
       <c r="R20">
-        <v>218.07196101936</v>
+        <v>120.36636437876</v>
       </c>
       <c r="S20">
-        <v>0.02639487665499925</v>
+        <v>0.009788144026608233</v>
       </c>
       <c r="T20">
-        <v>0.0155004357325082</v>
+        <v>0.005137812426383708</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H21">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I21">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J21">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.225084</v>
       </c>
       <c r="O21">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P21">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q21">
-        <v>30.65299337542401</v>
+        <v>41.06854401897333</v>
       </c>
       <c r="R21">
-        <v>183.917960252544</v>
+        <v>246.41126411384</v>
       </c>
       <c r="S21">
-        <v>0.01484064206088369</v>
+        <v>0.01335870949980261</v>
       </c>
       <c r="T21">
-        <v>0.01307278803575975</v>
+        <v>0.01051801191553151</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H22">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I22">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J22">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N22">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O22">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P22">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q22">
-        <v>8.04316927288</v>
+        <v>4.624302689573334</v>
       </c>
       <c r="R22">
-        <v>48.25901563728001</v>
+        <v>27.74581613744</v>
       </c>
       <c r="S22">
-        <v>0.003894099174980137</v>
+        <v>0.001504185691136911</v>
       </c>
       <c r="T22">
-        <v>0.003430224440148717</v>
+        <v>0.001184324206075729</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H23">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I23">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J23">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N23">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O23">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P23">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q23">
-        <v>55.39033965091201</v>
+        <v>53.456666213895</v>
       </c>
       <c r="R23">
-        <v>221.561358603648</v>
+        <v>213.82666485558</v>
       </c>
       <c r="S23">
-        <v>0.026817224481868</v>
+        <v>0.01738829782836768</v>
       </c>
       <c r="T23">
-        <v>0.01574846020455679</v>
+        <v>0.009127145290607814</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H24">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I24">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J24">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N24">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O24">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P24">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q24">
-        <v>14.999870778368</v>
+        <v>167.7451184595833</v>
       </c>
       <c r="R24">
-        <v>89.99922467020801</v>
+        <v>1006.4707107575</v>
       </c>
       <c r="S24">
-        <v>0.007262185146320612</v>
+        <v>0.05456386051758475</v>
       </c>
       <c r="T24">
-        <v>0.006397095671791928</v>
+        <v>0.04296098624570252</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H25">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I25">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J25">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N25">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O25">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P25">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q25">
-        <v>21.056812233296</v>
+        <v>11.96219516785</v>
       </c>
       <c r="R25">
-        <v>126.340873399776</v>
+        <v>71.7731710071</v>
       </c>
       <c r="S25">
-        <v>0.01019465242660857</v>
+        <v>0.003891043474865451</v>
       </c>
       <c r="T25">
-        <v>0.008980240189376413</v>
+        <v>0.003063622398038572</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H26">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I26">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J26">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N26">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O26">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P26">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q26">
-        <v>48.2742373843425</v>
+        <v>30.68804777446167</v>
       </c>
       <c r="R26">
-        <v>289.645424306055</v>
+        <v>184.12828664677</v>
       </c>
       <c r="S26">
-        <v>0.02337196465639621</v>
+        <v>0.009982158489614406</v>
       </c>
       <c r="T26">
-        <v>0.02058783836163372</v>
+        <v>0.007859476391640949</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H27">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I27">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J27">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.225084</v>
       </c>
       <c r="O27">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P27">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q27">
-        <v>27.14241430817467</v>
+        <v>41.88257898746445</v>
       </c>
       <c r="R27">
-        <v>244.281728773572</v>
+        <v>376.94321088718</v>
       </c>
       <c r="S27">
-        <v>0.01314099574166813</v>
+        <v>0.01362349747625802</v>
       </c>
       <c r="T27">
-        <v>0.0173634116911738</v>
+        <v>0.01608974004434477</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H28">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I28">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J28">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N28">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O28">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P28">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q28">
-        <v>7.122013503918333</v>
+        <v>4.715962722431112</v>
       </c>
       <c r="R28">
-        <v>64.09812153526499</v>
+        <v>42.44366450188001</v>
       </c>
       <c r="S28">
-        <v>0.003448121750131361</v>
+        <v>0.001534000718207843</v>
       </c>
       <c r="T28">
-        <v>0.004556059425464925</v>
+        <v>0.001811698708559653</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H29">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I29">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J29">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N29">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O29">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P29">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q29">
-        <v>49.046679685154</v>
+        <v>54.51625078492251</v>
       </c>
       <c r="R29">
-        <v>294.280078110924</v>
+        <v>327.097504709535</v>
       </c>
       <c r="S29">
-        <v>0.02374594247835405</v>
+        <v>0.01773295778193921</v>
       </c>
       <c r="T29">
-        <v>0.02091726701953633</v>
+        <v>0.01396208677573307</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H30">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I30">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J30">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N30">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O30">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P30">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q30">
-        <v>13.28198855652267</v>
+        <v>171.0700571804861</v>
       </c>
       <c r="R30">
-        <v>119.537897008704</v>
+        <v>1539.630514624375</v>
       </c>
       <c r="S30">
-        <v>0.006430472730997339</v>
+        <v>0.05564539120093855</v>
       </c>
       <c r="T30">
-        <v>0.008496688347834432</v>
+        <v>0.06571879802886632</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H31">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I31">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J31">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N31">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O31">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P31">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q31">
-        <v>18.64524989927367</v>
+        <v>12.19930231150833</v>
       </c>
       <c r="R31">
-        <v>167.807249093463</v>
+        <v>109.793720803575</v>
       </c>
       <c r="S31">
-        <v>0.009027094890925009</v>
+        <v>0.003968169302627846</v>
       </c>
       <c r="T31">
-        <v>0.01192764749701727</v>
+        <v>0.004686521404837354</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H32">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I32">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J32">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N32">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O32">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P32">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q32">
-        <v>98.93134289589251</v>
+        <v>60.45412634304133</v>
       </c>
       <c r="R32">
-        <v>593.588057375355</v>
+        <v>362.724758058248</v>
       </c>
       <c r="S32">
-        <v>0.04789759455262924</v>
+        <v>0.01966442032880333</v>
       </c>
       <c r="T32">
-        <v>0.04219191450346176</v>
+        <v>0.01548282843738982</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H33">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I33">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J33">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.225084</v>
       </c>
       <c r="O33">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P33">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q33">
-        <v>55.6246072944769</v>
+        <v>82.50686848147022</v>
       </c>
       <c r="R33">
-        <v>500.621465650292</v>
+        <v>742.5618163332321</v>
       </c>
       <c r="S33">
-        <v>0.02693064512571875</v>
+        <v>0.02683770058352155</v>
       </c>
       <c r="T33">
-        <v>0.03558390000417114</v>
+        <v>0.03169609173630703</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H34">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I34">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J34">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N34">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O34">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P34">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q34">
-        <v>14.59557723212945</v>
+        <v>9.290242518723556</v>
       </c>
       <c r="R34">
-        <v>131.360195089165</v>
+        <v>83.61218266851201</v>
       </c>
       <c r="S34">
-        <v>0.007066446487659556</v>
+        <v>0.003021915043616027</v>
       </c>
       <c r="T34">
-        <v>0.009337010830147837</v>
+        <v>0.003568968069514529</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H35">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I35">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J35">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N35">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O35">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P35">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q35">
-        <v>100.5143560778607</v>
+        <v>107.394655304314</v>
       </c>
       <c r="R35">
-        <v>603.086136467164</v>
+        <v>644.3679318258841</v>
       </c>
       <c r="S35">
-        <v>0.0486640101428954</v>
+        <v>0.03493315958264721</v>
       </c>
       <c r="T35">
-        <v>0.04286703277110459</v>
+        <v>0.02750470685382267</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H36">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I36">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J36">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N36">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O36">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P36">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q36">
-        <v>27.21959031197156</v>
+        <v>337.0006109970555</v>
       </c>
       <c r="R36">
-        <v>244.976312807744</v>
+        <v>3033.0054989735</v>
       </c>
       <c r="S36">
-        <v>0.01317836049211881</v>
+        <v>0.109619013069609</v>
       </c>
       <c r="T36">
-        <v>0.01741278234447642</v>
+        <v>0.129463188676869</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H37">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I37">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J37">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N37">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O37">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P37">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q37">
-        <v>38.21084932898255</v>
+        <v>24.03209772928667</v>
       </c>
       <c r="R37">
-        <v>343.897643960843</v>
+        <v>216.28887956358</v>
       </c>
       <c r="S37">
-        <v>0.01849977686643936</v>
+        <v>0.007817121836315643</v>
       </c>
       <c r="T37">
-        <v>0.02444405646585072</v>
+        <v>0.009232244396894514</v>
       </c>
     </row>
   </sheetData>
